--- a/biology/Neurosciences/Ganglion_ptérygopalatin/Ganglion_ptérygopalatin.xlsx
+++ b/biology/Neurosciences/Ganglion_ptérygopalatin/Ganglion_ptérygopalatin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ganglion_pt%C3%A9rygopalatin</t>
+          <t>Ganglion_ptérygopalatin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ganglion ptérygopalatin (ou sphéno-palatin), également appelé ganglion de Meckel, est situé derrière la cavité nasale, dans la fosse ptérygo-palatine. Celle-ci est formée par :
 en avant : la partie postérieure de l'os maxillaire ;
 en arrière : le processus ptérygoïde de l'os sphénoïde ;
 en haut : le corps du sphénoïde et l'os ethmoïde.
-Ce ganglion contient des fibres nerveuses du système nerveux autonome reliées aux nerfs crâniens et qui innervent les cavités nasale et orale (ou buccale), ainsi que les glandes lacrymales et la partie supérieure du larynx. Il est responsable également de l'innervation parasympathique du lobe pariétal[1]. Sa stimulation pourrait présenter un intérêt dans le cas d'un accident vasculaire cérébral[2] car cela augmente le flux sanguin cérébral.
+Ce ganglion contient des fibres nerveuses du système nerveux autonome reliées aux nerfs crâniens et qui innervent les cavités nasale et orale (ou buccale), ainsi que les glandes lacrymales et la partie supérieure du larynx. Il est responsable également de l'innervation parasympathique du lobe pariétal. Sa stimulation pourrait présenter un intérêt dans le cas d'un accident vasculaire cérébral car cela augmente le flux sanguin cérébral.
 </t>
         </is>
       </c>
